--- a/hebrewOutputs/hebrew82Comperation_12_Common_alpha=0.24.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_12_Common_alpha=0.24.xlsx
@@ -208,6 +208,9 @@
     <t xml:space="preserve">אם יש לו אח? </t>
   </si>
   <si>
+    <t>[?]med</t>
+  </si>
+  <si>
     <t>לא. הוא ילד היחיד שלנו.</t>
   </si>
   <si>
@@ -275,9 +278,6 @@
   </si>
   <si>
     <t>כי,</t>
-  </si>
-  <si>
-    <t>[?]med</t>
   </si>
   <si>
     <t>כמו שאמרתי התוצאות של הבדיקות, לא היו כל כך בסדר. אא,</t>
@@ -834,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1016,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1212,7 +1212,7 @@
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1366,7 +1366,7 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1408,7 +1408,7 @@
         <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
         <v>59</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
@@ -1486,10 +1486,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
         <v>48</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -1556,10 +1556,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
         <v>27</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
         <v>55</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
         <v>55</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
@@ -1654,10 +1654,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
         <v>55</v>
@@ -1682,13 +1682,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -1716,7 +1716,7 @@
         <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1727,7 +1727,7 @@
         <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -1772,7 +1772,7 @@
         <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1786,7 +1786,7 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -1828,7 +1828,7 @@
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -1884,7 +1884,7 @@
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -2007,7 +2007,7 @@
         <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -2049,7 +2049,7 @@
         <v>114</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C90" t="s">
         <v>40</v>
@@ -2066,7 +2066,7 @@
         <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2441,7 +2441,7 @@
         <v>142</v>
       </c>
       <c r="B118" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
@@ -2458,7 +2458,7 @@
         <v>22</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -2469,10 +2469,10 @@
         <v>143</v>
       </c>
       <c r="B120" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C120" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
